--- a/docs/Planification.xlsx
+++ b/docs/Planification.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chapuisbertil/Projects/github.com/isplab-unil/commoncrawl-sri/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA33D0E-CC06-9244-8D45-CA945AD7D6E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3C1748-01AF-8740-8904-454BA70DE896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{96E31602-DBE7-3B40-B9BA-3B1BDC983095}"/>
   </bookViews>
   <sheets>
     <sheet name="Scalability" sheetId="7" r:id="rId1"/>
-    <sheet name="EMR Price" sheetId="2" r:id="rId2"/>
-    <sheet name="S3 Storage" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="warc_files">Scalability!$B$3</definedName>
@@ -30,37 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
-  <si>
-    <t>m3.xlarge (default)</t>
-  </si>
-  <si>
-    <t>Warc files (nb)</t>
-  </si>
-  <si>
-    <t>Warc size (GB)</t>
-  </si>
-  <si>
-    <t>Output size (GB)</t>
-  </si>
-  <si>
-    <t>Cost ($/month/GB)</t>
-  </si>
-  <si>
-    <t>vCore</t>
-  </si>
-  <si>
-    <t>memory</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>m3.2xlarge</t>
-  </si>
-  <si>
-    <t>cost/vCore</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
   <si>
     <t>warc</t>
   </si>
@@ -99,15 +67,6 @@
   </si>
   <si>
     <t>command</t>
-  </si>
-  <si>
-    <t>c5.xlarge</t>
-  </si>
-  <si>
-    <t>0.043 </t>
-  </si>
-  <si>
-    <t>$0.048</t>
   </si>
   <si>
     <t>2019-03-01-17-47-full-py-20-warc-txt-m1-c1-t2-p20</t>
@@ -165,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,12 +139,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -220,16 +173,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -556,593 +504,431 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="10.83203125" style="4"/>
-    <col min="8" max="8" width="3.33203125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="3.33203125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
+      <c r="A1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="5">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
         <v>65500</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="3">
         <v>0.192</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3">
         <v>0.08</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
         <v>10</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C8" s="3">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3">
+        <v>50</v>
+      </c>
+      <c r="G8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C9" s="3">
         <v>20</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D9" s="3">
         <v>30</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E9" s="3">
         <v>40</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F9" s="3">
         <v>50</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G9" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="5">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5">
-        <v>30</v>
-      </c>
-      <c r="E9" s="5">
-        <v>40</v>
-      </c>
-      <c r="F9" s="5">
-        <v>50</v>
-      </c>
-      <c r="G9" s="5">
-        <v>100</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3">
         <v>15</v>
       </c>
-      <c r="B10" s="5">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2</v>
-      </c>
-      <c r="E11" s="5">
-        <v>2</v>
-      </c>
-      <c r="F11" s="5">
-        <v>2</v>
-      </c>
-      <c r="G11" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5">
-        <v>3</v>
-      </c>
-      <c r="E12" s="5">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5">
-        <v>7</v>
-      </c>
-      <c r="G12" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <f>SUM(B10:B12)</f>
         <v>2</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <f>SUM(C10:C12)</f>
         <v>4</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <f t="shared" ref="D13:F13" si="0">SUM(D10:D12)</f>
         <v>6</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="4">
         <f>SUM(G10:G12)</f>
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="8">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5">
         <f>1/60*47</f>
         <v>0.78333333333333333</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <f>1/60*37</f>
         <v>0.6166666666666667</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <f>1/60*35</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="5">
         <f>1/60*39</f>
         <v>0.65</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="5">
         <f>1/60*36</f>
         <v>0.6</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="5">
         <f>1/60*35</f>
         <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="4">
         <f>B14*SUM(B10:B11)*$C$5+B12*$C$6</f>
         <v>0.30080000000000001</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="8">
         <f>C14*SUM(C10:C11)*$C5+C12*$C$6</f>
         <v>0.39680000000000004</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <f>D14*SUM(D10:D11)*$C5+D12*$C$6</f>
         <v>0.57600000000000007</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="8">
         <f>E14*SUM(E10:E11)*$C5+E12*F6</f>
         <v>0.37440000000000007</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="8">
         <f>F14*SUM(F10:F11)*$C5+F12*G6</f>
         <v>0.34559999999999996</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="8">
         <f>G14*SUM(G10:G11)*$C5+G12*H6</f>
         <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="8">
+      <c r="A16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="5">
         <v>431</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="4">
         <f>B14/B8*warc_files</f>
         <v>5130.8333333333339</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <f>C14/C8*warc_files/24</f>
         <v>84.149305555555557</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <f>D14/D8*warc_files/24</f>
         <v>53.067129629629626</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <f>E14/E8*warc_files/24</f>
         <v>44.348958333333336</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="8">
         <f>F14/F8*warc_files/24</f>
         <v>32.75</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="8">
         <f>G14/G8*warc_files/24</f>
         <v>15.920138888888891</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>35</v>
+      <c r="I17" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="7">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="4">
         <f t="shared" ref="B18:G18" si="1">B15/B8*warc_files</f>
         <v>1970.2400000000002</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="8">
         <f t="shared" si="1"/>
         <v>1299.5200000000002</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="8">
         <f t="shared" si="1"/>
         <v>1257.6000000000001</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <f t="shared" si="1"/>
         <v>613.08000000000015</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="8">
         <f t="shared" si="1"/>
         <v>452.73599999999993</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="8">
         <f t="shared" si="1"/>
         <v>366.80000000000007</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>36</v>
+      <c r="I18" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G19" s="11">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="8">
         <f>G16/G8*warc_files</f>
         <v>282305</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>37</v>
+      <c r="I19" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="91" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="9" t="str">
+      <c r="A21" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6" t="str">
         <f>_xlfn.CONCAT("./submit-remote.py full.py ", B8, "_warc.txt ", B9, " ", B10, " ", B11, " ", B12)</f>
         <v>./submit-remote.py full.py 10_warc.txt 10 1 1 0</v>
       </c>
-      <c r="C21" s="9" t="str">
+      <c r="C21" s="6" t="str">
         <f>_xlfn.CONCAT("./submit-remote.py full.py ", C8, "_warc.txt ", C9, " ", C10, " ", C11, " ", C12)</f>
         <v>./submit-remote.py full.py 20_warc.txt 20 1 1 2</v>
       </c>
-      <c r="D21" s="9" t="str">
+      <c r="D21" s="6" t="str">
         <f>_xlfn.CONCAT("./submit-remote.py full.py ", D8, "_warc.txt ", D9, " ", D10, " ", D11, " ", D12)</f>
         <v>./submit-remote.py full.py 30_warc.txt 30 1 2 3</v>
       </c>
-      <c r="E21" s="9" t="str">
+      <c r="E21" s="6" t="str">
         <f>_xlfn.CONCAT("./submit-remote.py full.py ", E8, "_warc.txt ", E9, " ", E10, " ", E11, " ", E12)</f>
         <v>./submit-remote.py full.py 40_warc.txt 40 1 2 5</v>
       </c>
-      <c r="F21" s="9" t="str">
+      <c r="F21" s="6" t="str">
         <f>_xlfn.CONCAT("./submit-remote.py full.py ", F8, "_warc.txt ", F9, " ", F10, " ", F11, " ", F12)</f>
         <v>./submit-remote.py full.py 50_warc.txt 50 1 2 7</v>
       </c>
-      <c r="G21" s="9" t="str">
+      <c r="G21" s="6" t="str">
         <f>_xlfn.CONCAT("./submit-remote.py full.py ", G8, "_warc.txt ", G9, " ", G10, " ", G11, " ", G12)</f>
         <v>./submit-remote.py full.py 100_warc.txt 100 1 4 15</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>30</v>
+      <c r="I21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
+      <c r="A22" s="7"/>
     </row>
     <row r="23" spans="1:9" ht="102" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>34</v>
+      <c r="F23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC5388C7-BB73-9744-9216-A03B36057BE5}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>16</v>
-      </c>
-      <c r="D2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E2">
-        <f>D2/B2</f>
-        <v>8.7500000000000008E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>32</v>
-      </c>
-      <c r="D3">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E3">
-        <f>D3/B3</f>
-        <v>8.7500000000000008E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
-        <v>8</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7904D760-E1D9-254E-9B71-C4834600A5A1}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <f>54000</f>
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <f>C1*B2</f>
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>0.01</v>
-      </c>
-      <c r="C3">
-        <f>C1*B3</f>
-        <v>540</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C4" s="2">
-        <f>B4*C3</f>
-        <v>14.04</v>
-      </c>
+      <c r="A24" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Planification.xlsx
+++ b/docs/Planification.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chapuisbertil/Projects/github.com/isplab-unil/commoncrawl-sri/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3C1748-01AF-8740-8904-454BA70DE896}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451401E2-6660-6B47-985D-633EFCA428FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{96E31602-DBE7-3B40-B9BA-3B1BDC983095}"/>
   </bookViews>
@@ -23,12 +23,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>warc</t>
   </si>
@@ -501,26 +507,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B741595-8E0B-6E42-81B0-4DDCC8A2903A}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="10.83203125" style="2"/>
-    <col min="8" max="8" width="3.33203125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="2"/>
+    <col min="2" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="3.33203125" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -528,7 +534,7 @@
         <v>65500</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -539,7 +545,7 @@
         <v>0.192</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -550,10 +556,10 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,8 +581,11 @@
       <c r="G8" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -598,8 +607,11 @@
       <c r="G9" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9" s="3">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -621,8 +633,11 @@
       <c r="G10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -644,8 +659,11 @@
       <c r="G11" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -667,8 +685,11 @@
       <c r="G12" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H12" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>1</v>
       </c>
@@ -696,8 +717,12 @@
         <f>SUM(G10:G12)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H13" s="4">
+        <f>SUM(H10:H12)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -725,8 +750,12 @@
         <f>1/60*35</f>
         <v>0.58333333333333337</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" s="5">
+        <f>1/60*35</f>
+        <v>0.58333333333333337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -747,15 +776,19 @@
         <v>0.37440000000000007</v>
       </c>
       <c r="F15" s="8">
-        <f>F14*SUM(F10:F11)*$C5+F12*G6</f>
+        <f>F14*SUM(F10:F11)*$C5+F12*H6</f>
         <v>0.34559999999999996</v>
       </c>
       <c r="G15" s="8">
         <f>G14*SUM(G10:G11)*$C5+G12*H6</f>
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" s="8">
+        <f>H14*SUM(H10:H11)*$C5+H12*I6</f>
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -777,8 +810,11 @@
       <c r="G16" s="5">
         <v>431</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -806,16 +842,20 @@
         <f>G14/G8*warc_files/24</f>
         <v>15.920138888888891</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="H17" s="8">
+        <f>H14/H8*warc_files/24</f>
+        <v>2.8428819444444446</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <f t="shared" ref="B18:G18" si="1">B15/B8*warc_files</f>
+        <f t="shared" ref="B18:H18" si="1">B15/B8*warc_files</f>
         <v>1970.2400000000002</v>
       </c>
       <c r="C18" s="8">
@@ -835,14 +875,18 @@
         <v>452.73599999999993</v>
       </c>
       <c r="G18" s="8">
+        <f t="shared" ref="G18" si="2">G15/G8*warc_files</f>
+        <v>366.80000000000007</v>
+      </c>
+      <c r="H18" s="8">
         <f t="shared" si="1"/>
-        <v>366.80000000000007</v>
-      </c>
-      <c r="I18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -865,46 +909,54 @@
         <f>G16/G8*warc_files</f>
         <v>282305</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="H19" s="8">
+        <f>H16/H8*warc_files</f>
+        <v>50411.607142857145</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="91" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="6" t="str">
-        <f>_xlfn.CONCAT("./submit-remote.py full.py ", B8, "_warc.txt ", B9, " ", B10, " ", B11, " ", B12)</f>
+        <f t="shared" ref="B21:H21" si="3">_xlfn.CONCAT("./submit-remote.py full.py ", B8, "_warc.txt ", B9, " ", B10, " ", B11, " ", B12)</f>
         <v>./submit-remote.py full.py 10_warc.txt 10 1 1 0</v>
       </c>
       <c r="C21" s="6" t="str">
-        <f>_xlfn.CONCAT("./submit-remote.py full.py ", C8, "_warc.txt ", C9, " ", C10, " ", C11, " ", C12)</f>
+        <f t="shared" si="3"/>
         <v>./submit-remote.py full.py 20_warc.txt 20 1 1 2</v>
       </c>
       <c r="D21" s="6" t="str">
-        <f>_xlfn.CONCAT("./submit-remote.py full.py ", D8, "_warc.txt ", D9, " ", D10, " ", D11, " ", D12)</f>
+        <f t="shared" si="3"/>
         <v>./submit-remote.py full.py 30_warc.txt 30 1 2 3</v>
       </c>
       <c r="E21" s="6" t="str">
-        <f>_xlfn.CONCAT("./submit-remote.py full.py ", E8, "_warc.txt ", E9, " ", E10, " ", E11, " ", E12)</f>
+        <f t="shared" si="3"/>
         <v>./submit-remote.py full.py 40_warc.txt 40 1 2 5</v>
       </c>
       <c r="F21" s="6" t="str">
-        <f>_xlfn.CONCAT("./submit-remote.py full.py ", F8, "_warc.txt ", F9, " ", F10, " ", F11, " ", F12)</f>
+        <f t="shared" si="3"/>
         <v>./submit-remote.py full.py 50_warc.txt 50 1 2 7</v>
       </c>
       <c r="G21" s="6" t="str">
-        <f>_xlfn.CONCAT("./submit-remote.py full.py ", G8, "_warc.txt ", G9, " ", G10, " ", G11, " ", G12)</f>
+        <f t="shared" ref="G21" si="4">_xlfn.CONCAT("./submit-remote.py full.py ", G8, "_warc.txt ", G9, " ", G10, " ", G11, " ", G12)</f>
         <v>./submit-remote.py full.py 100_warc.txt 100 1 4 15</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="H21" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>./submit-remote.py full.py 560_warc.txt 560 1 9 30</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
@@ -926,8 +978,11 @@
       <c r="G23" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H23" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
     </row>
   </sheetData>
